--- a/01.byd-DataFactory/1.ArchitectureDossier/artifacts/04.business-activity/BYD-DF_TrackActivity_v01.00.xlsx
+++ b/01.byd-DataFactory/1.ArchitectureDossier/artifacts/04.business-activity/BYD-DF_TrackActivity_v01.00.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/SWilbert/byd-all-documentation/01.byd-DataFactory/1.ArchitectureDossier/artifacts/04.business-activity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B83D00-9328-B248-8825-E3F81A7A4D5A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF988459-1E2B-4449-B0B1-0847A3D5CA43}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="460" windowWidth="33600" windowHeight="19300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="00 - Technical Parameter" sheetId="4" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <definedName name="TRIGGER">'00 - Technical Parameter'!$I$6:$I$14</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="38">
   <si>
     <t>Parameter</t>
   </si>
@@ -680,7 +681,7 @@
     <cellStyle name="Summary Values" xfId="3" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
     <cellStyle name="Title" xfId="1" builtinId="15"/>
   </cellStyles>
-  <dxfs count="82">
+  <dxfs count="6">
     <dxf>
       <font>
         <b val="0"/>
@@ -742,770 +743,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i/>
-        <strike val="0"/>
-        <color rgb="FF7030A0"/>
-      </font>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1792,7 +1029,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="161" workbookViewId="0">
+    <sheetView showRuler="0" zoomScale="161" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -2017,9 +1254,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N389"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="178" zoomScaleNormal="160" zoomScalePageLayoutView="130" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" zoomScale="178" zoomScaleNormal="160" zoomScalePageLayoutView="130" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.2"/>
@@ -2215,17 +1452,25 @@
         <v>|DF_FILE_MANUAL-UPLOAD_SUCCESS|||||</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="4" customFormat="1" ht="11" x14ac:dyDescent="0.2">
-      <c r="A8" s="18"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
+    <row r="8" spans="1:14" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A8" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>7</v>
+      </c>
       <c r="E8" s="27"/>
       <c r="F8" s="40"/>
       <c r="G8" s="30"/>
       <c r="H8" s="23" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>DF_FILE_PROCESS-ENROLLMENT_SUCCESS</v>
       </c>
       <c r="I8" s="21"/>
       <c r="J8" s="30"/>
@@ -2233,7 +1478,7 @@
       <c r="M8" s="35"/>
       <c r="N8" s="32" t="str">
         <f t="shared" si="1"/>
-        <v>||||||</v>
+        <v>|DF_FILE_PROCESS-ENROLLMENT_SUCCESS|||||</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="4" customFormat="1" ht="11" x14ac:dyDescent="0.2">
@@ -10225,7 +9470,7 @@
       <c r="F389" s="40"/>
       <c r="G389" s="30"/>
       <c r="H389" s="23" t="str">
-        <f t="shared" ref="H389" si="12">IF(A389="","",A389&amp;"_"&amp;B389&amp;"_"&amp;C389&amp;"_"&amp;D389)</f>
+        <f>IF(A389="","",A389&amp;"_"&amp;B389&amp;"_"&amp;C389&amp;"_"&amp;D389)</f>
         <v/>
       </c>
       <c r="I389" s="21"/>
@@ -10233,7 +9478,7 @@
       <c r="L389" s="24"/>
       <c r="M389" s="35"/>
       <c r="N389" s="32" t="str">
-        <f t="shared" ref="N389" si="13">"|"&amp;H389&amp;"|"&amp;I389&amp;"|"&amp;J389&amp;"|"&amp;SUBSTITUTE(K389,CHAR(10),"&lt;/br&gt;")&amp;"|"&amp;SUBSTITUTE(L389,CHAR(10),"&lt;/br&gt;")&amp;"|"</f>
+        <f>"|"&amp;H389&amp;"|"&amp;I389&amp;"|"&amp;J389&amp;"|"&amp;SUBSTITUTE(K389,CHAR(10),"&lt;/br&gt;")&amp;"|"&amp;SUBSTITUTE(L389,CHAR(10),"&lt;/br&gt;")&amp;"|"</f>
         <v>||||||</v>
       </c>
     </row>
@@ -10466,18 +9711,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10499,18 +9744,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DBA3E61-0DD2-4C08-93A8-A7FDDB029349}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BC04AA1F-B97B-4E50-9C65-E74AEA12E36F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DBA3E61-0DD2-4C08-93A8-A7FDDB029349}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>